--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Slit1-Gpc1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Slit1-Gpc1.xlsx
@@ -543,16 +543,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.1224165</v>
+        <v>0.068532</v>
       </c>
       <c r="H2">
-        <v>0.244833</v>
+        <v>0.137064</v>
       </c>
       <c r="I2">
-        <v>0.0482653400043199</v>
+        <v>0.04258148657222823</v>
       </c>
       <c r="J2">
-        <v>0.03430070801521076</v>
+        <v>0.03063591244008391</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.4808749999999999</v>
+        <v>1.7139025</v>
       </c>
       <c r="N2">
-        <v>0.9617499999999999</v>
+        <v>3.427805</v>
       </c>
       <c r="O2">
-        <v>0.008972735441887963</v>
+        <v>0.03217902768459407</v>
       </c>
       <c r="P2">
-        <v>0.008345961472334341</v>
+        <v>0.02838262018067593</v>
       </c>
       <c r="Q2">
-        <v>0.05886703443749999</v>
+        <v>0.11745716613</v>
       </c>
       <c r="R2">
-        <v>0.23546813775</v>
+        <v>0.46982866452</v>
       </c>
       <c r="S2">
-        <v>0.0004330721268715341</v>
+        <v>0.001370230835258903</v>
       </c>
       <c r="T2">
-        <v>0.0002862723875687387</v>
+        <v>0.0008695274666753462</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.1224165</v>
+        <v>0.068532</v>
       </c>
       <c r="H3">
-        <v>0.244833</v>
+        <v>0.137064</v>
       </c>
       <c r="I3">
-        <v>0.0482653400043199</v>
+        <v>0.04258148657222823</v>
       </c>
       <c r="J3">
-        <v>0.03430070801521076</v>
+        <v>0.03063591244008391</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>14.596253</v>
       </c>
       <c r="O3">
-        <v>0.09078472687764562</v>
+        <v>0.09134965950092246</v>
       </c>
       <c r="P3">
-        <v>0.1266646895538805</v>
+        <v>0.1208586558920509</v>
       </c>
       <c r="Q3">
-        <v>0.5956074017915</v>
+        <v>0.333436803532</v>
       </c>
       <c r="R3">
-        <v>3.573644410749</v>
+        <v>2.000620821192</v>
       </c>
       <c r="S3">
-        <v>0.004381755709948885</v>
+        <v>0.00388980429941615</v>
       </c>
       <c r="T3">
-        <v>0.004344688532224971</v>
+        <v>0.003702615199535102</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.1224165</v>
+        <v>0.068532</v>
       </c>
       <c r="H4">
-        <v>0.244833</v>
+        <v>0.137064</v>
       </c>
       <c r="I4">
-        <v>0.0482653400043199</v>
+        <v>0.04258148657222823</v>
       </c>
       <c r="J4">
-        <v>0.03430070801521076</v>
+        <v>0.03063591244008391</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.708736</v>
+        <v>3.153815333333333</v>
       </c>
       <c r="N4">
-        <v>5.126208</v>
+        <v>9.461445999999999</v>
       </c>
       <c r="O4">
-        <v>0.03188362062496464</v>
+        <v>0.05921381812759512</v>
       </c>
       <c r="P4">
-        <v>0.04448467321775106</v>
+        <v>0.07834186255576833</v>
       </c>
       <c r="Q4">
-        <v>0.209177480544</v>
+        <v>0.2161372724239999</v>
       </c>
       <c r="R4">
-        <v>1.255064883264</v>
+        <v>1.296823634544</v>
       </c>
       <c r="S4">
-        <v>0.001538873790032665</v>
+        <v>0.002521412401490556</v>
       </c>
       <c r="T4">
-        <v>0.001525855787194145</v>
+        <v>0.002400074441651607</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.1224165</v>
+        <v>0.068532</v>
       </c>
       <c r="H5">
-        <v>0.244833</v>
+        <v>0.137064</v>
       </c>
       <c r="I5">
-        <v>0.0482653400043199</v>
+        <v>0.04258148657222823</v>
       </c>
       <c r="J5">
-        <v>0.03430070801521076</v>
+        <v>0.03063591244008391</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>45.062479</v>
+        <v>37.2992575</v>
       </c>
       <c r="N5">
-        <v>90.12495799999999</v>
+        <v>74.59851499999999</v>
       </c>
       <c r="O5">
-        <v>0.8408291186329754</v>
+        <v>0.7003046204246175</v>
       </c>
       <c r="P5">
-        <v>0.7820945434507416</v>
+        <v>0.6176842957191133</v>
       </c>
       <c r="Q5">
-        <v>5.516390960503499</v>
+        <v>2.556192714989999</v>
       </c>
       <c r="R5">
-        <v>22.065563842014</v>
+        <v>10.22477085996</v>
       </c>
       <c r="S5">
-        <v>0.04058290329635319</v>
+        <v>0.02982001179108024</v>
       </c>
       <c r="T5">
-        <v>0.02682639657519345</v>
+        <v>0.01892332199926565</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.1224165</v>
+        <v>0.068532</v>
       </c>
       <c r="H6">
-        <v>0.244833</v>
+        <v>0.137064</v>
       </c>
       <c r="I6">
-        <v>0.0482653400043199</v>
+        <v>0.04258148657222823</v>
       </c>
       <c r="J6">
-        <v>0.03430070801521076</v>
+        <v>0.03063591244008391</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.5802156666666667</v>
+        <v>2.928649333333333</v>
       </c>
       <c r="N6">
-        <v>1.740647</v>
+        <v>8.785947999999999</v>
       </c>
       <c r="O6">
-        <v>0.01082635128929275</v>
+        <v>0.05498625970602254</v>
       </c>
       <c r="P6">
-        <v>0.01510514457908433</v>
+        <v>0.07274866131858995</v>
       </c>
       <c r="Q6">
-        <v>0.0710279711585</v>
+        <v>0.200706196112</v>
       </c>
       <c r="R6">
-        <v>0.426167826951</v>
+        <v>1.204237176672</v>
       </c>
       <c r="S6">
-        <v>0.0005225375259839219</v>
+        <v>0.002341396679329053</v>
       </c>
       <c r="T6">
-        <v>0.0005181171537347152</v>
+        <v>0.002228721618289641</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.1224165</v>
+        <v>0.068532</v>
       </c>
       <c r="H7">
-        <v>0.244833</v>
+        <v>0.137064</v>
       </c>
       <c r="I7">
-        <v>0.0482653400043199</v>
+        <v>0.04258148657222823</v>
       </c>
       <c r="J7">
-        <v>0.03430070801521076</v>
+        <v>0.03063591244008391</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.8951863333333333</v>
+        <v>3.300433333333334</v>
       </c>
       <c r="N7">
-        <v>2.685559</v>
+        <v>9.901300000000001</v>
       </c>
       <c r="O7">
-        <v>0.01670344713323365</v>
+        <v>0.06196661455624835</v>
       </c>
       <c r="P7">
-        <v>0.02330498772620821</v>
+        <v>0.08198390433380152</v>
       </c>
       <c r="Q7">
-        <v>0.1095855777745</v>
+        <v>0.2261852972</v>
       </c>
       <c r="R7">
-        <v>0.6575134666469999</v>
+        <v>1.3571117832</v>
       </c>
       <c r="S7">
-        <v>0.0008061975551297046</v>
+        <v>0.002638630565653332</v>
       </c>
       <c r="T7">
-        <v>0.0007993775792947381</v>
+        <v>0.002511651714666559</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.132793</v>
       </c>
       <c r="I8">
-        <v>0.1488760074540974</v>
+        <v>0.2346155076879615</v>
       </c>
       <c r="J8">
-        <v>0.1587024703968609</v>
+        <v>0.2531966611272105</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4808749999999999</v>
+        <v>1.7139025</v>
       </c>
       <c r="N8">
-        <v>0.9617499999999999</v>
+        <v>3.427805</v>
       </c>
       <c r="O8">
-        <v>0.008972735441887963</v>
+        <v>0.03217902768459407</v>
       </c>
       <c r="P8">
-        <v>0.008345961472334341</v>
+        <v>0.02838262018067593</v>
       </c>
       <c r="Q8">
-        <v>0.1815772779583333</v>
+        <v>0.6471655848941668</v>
       </c>
       <c r="R8">
-        <v>1.08946366775</v>
+        <v>3.882993509365</v>
       </c>
       <c r="S8">
-        <v>0.001335825028530157</v>
+        <v>0.007549698917126008</v>
       </c>
       <c r="T8">
-        <v>0.001324524703496482</v>
+        <v>0.007186384663788927</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.132793</v>
       </c>
       <c r="I9">
-        <v>0.1488760074540974</v>
+        <v>0.2346155076879615</v>
       </c>
       <c r="J9">
-        <v>0.1587024703968609</v>
+        <v>0.2531966611272105</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>14.596253</v>
       </c>
       <c r="O9">
-        <v>0.09078472687764562</v>
+        <v>0.09134965950092246</v>
       </c>
       <c r="P9">
-        <v>0.1266646895538805</v>
+        <v>0.1208586558920509</v>
       </c>
       <c r="Q9">
         <v>1.837170358292111</v>
@@ -1013,10 +1013,10 @@
         <v>16.534533224629</v>
       </c>
       <c r="S9">
-        <v>0.01351566767535457</v>
+        <v>0.02143204674093134</v>
       </c>
       <c r="T9">
-        <v>0.02010199914425229</v>
+        <v>0.03060100814018974</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1.132793</v>
       </c>
       <c r="I10">
-        <v>0.1488760074540974</v>
+        <v>0.2346155076879615</v>
       </c>
       <c r="J10">
-        <v>0.1587024703968609</v>
+        <v>0.2531966611272105</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.708736</v>
+        <v>3.153815333333333</v>
       </c>
       <c r="N10">
-        <v>5.126208</v>
+        <v>9.461445999999999</v>
       </c>
       <c r="O10">
-        <v>0.03188362062496464</v>
+        <v>0.05921381812759512</v>
       </c>
       <c r="P10">
-        <v>0.04448467321775106</v>
+        <v>0.07834186255576833</v>
       </c>
       <c r="Q10">
-        <v>0.6452147265493333</v>
+        <v>1.190873310964222</v>
       </c>
       <c r="R10">
-        <v>5.806932538943999</v>
+        <v>10.717859798678</v>
       </c>
       <c r="S10">
-        <v>0.00474670614182585</v>
+        <v>0.01389248000214835</v>
       </c>
       <c r="T10">
-        <v>0.007059827534454167</v>
+        <v>0.01983589802560737</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.132793</v>
       </c>
       <c r="I11">
-        <v>0.1488760074540974</v>
+        <v>0.2346155076879615</v>
       </c>
       <c r="J11">
-        <v>0.1587024703968609</v>
+        <v>0.2531966611272105</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>45.062479</v>
+        <v>37.2992575</v>
       </c>
       <c r="N11">
-        <v>90.12495799999999</v>
+        <v>74.59851499999999</v>
       </c>
       <c r="O11">
-        <v>0.8408291186329754</v>
+        <v>0.7003046204246175</v>
       </c>
       <c r="P11">
-        <v>0.7820945434507416</v>
+        <v>0.6176842957191133</v>
       </c>
       <c r="Q11">
-        <v>17.01548692461567</v>
+        <v>14.08411260039916</v>
       </c>
       <c r="R11">
-        <v>102.092921547694</v>
+        <v>84.50467560239498</v>
       </c>
       <c r="S11">
-        <v>0.125179282133225</v>
+        <v>0.1643023240571468</v>
       </c>
       <c r="T11">
-        <v>0.1241203361295377</v>
+        <v>0.156395601306792</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1.132793</v>
       </c>
       <c r="I12">
-        <v>0.1488760074540974</v>
+        <v>0.2346155076879615</v>
       </c>
       <c r="J12">
-        <v>0.1587024703968609</v>
+        <v>0.2531966611272105</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.5802156666666667</v>
+        <v>2.928649333333333</v>
       </c>
       <c r="N12">
-        <v>1.740647</v>
+        <v>8.785947999999999</v>
       </c>
       <c r="O12">
-        <v>0.01082635128929275</v>
+        <v>0.05498625970602254</v>
       </c>
       <c r="P12">
-        <v>0.01510514457908433</v>
+        <v>0.07274866131858995</v>
       </c>
       <c r="Q12">
-        <v>0.2190880818967778</v>
+        <v>1.105851154751555</v>
       </c>
       <c r="R12">
-        <v>1.971792737071</v>
+        <v>9.952660392763999</v>
       </c>
       <c r="S12">
-        <v>0.001611783955245425</v>
+        <v>0.01290062923679058</v>
       </c>
       <c r="T12">
-        <v>0.002397223760402435</v>
+        <v>0.01841971814734122</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.132793</v>
       </c>
       <c r="I13">
-        <v>0.1488760074540974</v>
+        <v>0.2346155076879615</v>
       </c>
       <c r="J13">
-        <v>0.1587024703968609</v>
+        <v>0.2531966611272105</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.8951863333333333</v>
+        <v>3.300433333333334</v>
       </c>
       <c r="N13">
-        <v>2.685559</v>
+        <v>9.901300000000001</v>
       </c>
       <c r="O13">
-        <v>0.01670344713323365</v>
+        <v>0.06196661455624835</v>
       </c>
       <c r="P13">
-        <v>0.02330498772620821</v>
+        <v>0.08198390433380152</v>
       </c>
       <c r="Q13">
-        <v>0.3380202706985556</v>
+        <v>1.246235925655556</v>
       </c>
       <c r="R13">
-        <v>3.042182436287</v>
+        <v>11.2161233309</v>
       </c>
       <c r="S13">
-        <v>0.002486742519916415</v>
+        <v>0.01453832873381843</v>
       </c>
       <c r="T13">
-        <v>0.003698559124717764</v>
+        <v>0.02075805084349119</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.7251326666666668</v>
+        <v>0.079682</v>
       </c>
       <c r="H14">
-        <v>2.175398</v>
+        <v>0.239046</v>
       </c>
       <c r="I14">
-        <v>0.2858991615093214</v>
+        <v>0.04950939726037895</v>
       </c>
       <c r="J14">
-        <v>0.3047697476029517</v>
+        <v>0.05343045821771069</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.4808749999999999</v>
+        <v>1.7139025</v>
       </c>
       <c r="N14">
-        <v>0.9617499999999999</v>
+        <v>3.427805</v>
       </c>
       <c r="O14">
-        <v>0.008972735441887963</v>
+        <v>0.03217902768459407</v>
       </c>
       <c r="P14">
-        <v>0.008345961472334341</v>
+        <v>0.02838262018067593</v>
       </c>
       <c r="Q14">
-        <v>0.3486981710833333</v>
+        <v>0.136567179005</v>
       </c>
       <c r="R14">
-        <v>2.0921890265</v>
+        <v>0.8194030740300001</v>
       </c>
       <c r="S14">
-        <v>0.002565297539280739</v>
+        <v>0.0015931642650893</v>
       </c>
       <c r="T14">
-        <v>0.002543596571427296</v>
+        <v>0.001516496401672757</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.7251326666666668</v>
+        <v>0.079682</v>
       </c>
       <c r="H15">
-        <v>2.175398</v>
+        <v>0.239046</v>
       </c>
       <c r="I15">
-        <v>0.2858991615093214</v>
+        <v>0.04950939726037895</v>
       </c>
       <c r="J15">
-        <v>0.3047697476029517</v>
+        <v>0.05343045821771069</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>14.596253</v>
       </c>
       <c r="O15">
-        <v>0.09078472687764562</v>
+        <v>0.09134965950092246</v>
       </c>
       <c r="P15">
-        <v>0.1266646895538805</v>
+        <v>0.1208586558920509</v>
       </c>
       <c r="Q15">
-        <v>3.528073287077111</v>
+        <v>0.3876862105153334</v>
       </c>
       <c r="R15">
-        <v>31.75265958369401</v>
+        <v>3.489175894638</v>
       </c>
       <c r="S15">
-        <v>0.02595527729217163</v>
+        <v>0.00452266658183152</v>
       </c>
       <c r="T15">
-        <v>0.03860356546554239</v>
+        <v>0.006457533363888899</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.7251326666666668</v>
+        <v>0.079682</v>
       </c>
       <c r="H16">
-        <v>2.175398</v>
+        <v>0.239046</v>
       </c>
       <c r="I16">
-        <v>0.2858991615093214</v>
+        <v>0.04950939726037895</v>
       </c>
       <c r="J16">
-        <v>0.3047697476029517</v>
+        <v>0.05343045821771069</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.708736</v>
+        <v>3.153815333333333</v>
       </c>
       <c r="N16">
-        <v>5.126208</v>
+        <v>9.461445999999999</v>
       </c>
       <c r="O16">
-        <v>0.03188362062496464</v>
+        <v>0.05921381812759512</v>
       </c>
       <c r="P16">
-        <v>0.04448467321775106</v>
+        <v>0.07834186255576833</v>
       </c>
       <c r="Q16">
-        <v>1.239060292309333</v>
+        <v>0.2513023133906666</v>
       </c>
       <c r="R16">
-        <v>11.151542630784</v>
+        <v>2.261720820516</v>
       </c>
       <c r="S16">
-        <v>0.009115500402558695</v>
+        <v>0.002931640444982935</v>
       </c>
       <c r="T16">
-        <v>0.01355758262877377</v>
+        <v>0.004185841613983613</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.7251326666666668</v>
+        <v>0.079682</v>
       </c>
       <c r="H17">
-        <v>2.175398</v>
+        <v>0.239046</v>
       </c>
       <c r="I17">
-        <v>0.2858991615093214</v>
+        <v>0.04950939726037895</v>
       </c>
       <c r="J17">
-        <v>0.3047697476029517</v>
+        <v>0.05343045821771069</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>45.062479</v>
+        <v>37.2992575</v>
       </c>
       <c r="N17">
-        <v>90.12495799999999</v>
+        <v>74.59851499999999</v>
       </c>
       <c r="O17">
-        <v>0.8408291186329754</v>
+        <v>0.7003046204246175</v>
       </c>
       <c r="P17">
-        <v>0.7820945434507416</v>
+        <v>0.6176842957191133</v>
       </c>
       <c r="Q17">
-        <v>32.67627556388067</v>
+        <v>2.972079436115</v>
       </c>
       <c r="R17">
-        <v>196.057653383284</v>
+        <v>17.83247661669</v>
       </c>
       <c r="S17">
-        <v>0.2403923399897894</v>
+        <v>0.03467165965588128</v>
       </c>
       <c r="T17">
-        <v>0.2383587566091282</v>
+        <v>0.03300315495415614</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.7251326666666668</v>
+        <v>0.079682</v>
       </c>
       <c r="H18">
-        <v>2.175398</v>
+        <v>0.239046</v>
       </c>
       <c r="I18">
-        <v>0.2858991615093214</v>
+        <v>0.04950939726037895</v>
       </c>
       <c r="J18">
-        <v>0.3047697476029517</v>
+        <v>0.05343045821771069</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.5802156666666667</v>
+        <v>2.928649333333333</v>
       </c>
       <c r="N18">
-        <v>1.740647</v>
+        <v>8.785947999999999</v>
       </c>
       <c r="O18">
-        <v>0.01082635128929275</v>
+        <v>0.05498625970602254</v>
       </c>
       <c r="P18">
-        <v>0.01510514457908433</v>
+        <v>0.07274866131858995</v>
       </c>
       <c r="Q18">
-        <v>0.4207333336117778</v>
+        <v>0.2333606361786666</v>
       </c>
       <c r="R18">
-        <v>3.786600002506001</v>
+        <v>2.100245725608</v>
       </c>
       <c r="S18">
-        <v>0.003095244755814158</v>
+        <v>0.002722336575647838</v>
       </c>
       <c r="T18">
-        <v>0.004603591100873625</v>
+        <v>0.003886994308977306</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.7251326666666668</v>
+        <v>0.079682</v>
       </c>
       <c r="H19">
-        <v>2.175398</v>
+        <v>0.239046</v>
       </c>
       <c r="I19">
-        <v>0.2858991615093214</v>
+        <v>0.04950939726037895</v>
       </c>
       <c r="J19">
-        <v>0.3047697476029517</v>
+        <v>0.05343045821771069</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.8951863333333333</v>
+        <v>3.300433333333334</v>
       </c>
       <c r="N19">
-        <v>2.685559</v>
+        <v>9.901300000000001</v>
       </c>
       <c r="O19">
-        <v>0.01670344713323365</v>
+        <v>0.06196661455624835</v>
       </c>
       <c r="P19">
-        <v>0.02330498772620821</v>
+        <v>0.08198390433380152</v>
       </c>
       <c r="Q19">
-        <v>0.6491288530535556</v>
+        <v>0.2629851288666667</v>
       </c>
       <c r="R19">
-        <v>5.842159677482001</v>
+        <v>2.3668661598</v>
       </c>
       <c r="S19">
-        <v>0.004775501529706778</v>
+        <v>0.003067929736946081</v>
       </c>
       <c r="T19">
-        <v>0.007102655227206362</v>
+        <v>0.004380437575031973</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.348712</v>
+        <v>0.2857985</v>
       </c>
       <c r="H20">
-        <v>0.697424</v>
+        <v>0.571597</v>
       </c>
       <c r="I20">
-        <v>0.1374872116388428</v>
+        <v>0.1775772630320576</v>
       </c>
       <c r="J20">
-        <v>0.09770797640350913</v>
+        <v>0.1277607223123114</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.4808749999999999</v>
+        <v>1.7139025</v>
       </c>
       <c r="N20">
-        <v>0.9617499999999999</v>
+        <v>3.427805</v>
       </c>
       <c r="O20">
-        <v>0.008972735441887963</v>
+        <v>0.03217902768459407</v>
       </c>
       <c r="P20">
-        <v>0.008345961472334341</v>
+        <v>0.02838262018067593</v>
       </c>
       <c r="Q20">
-        <v>0.167686883</v>
+        <v>0.4898307636462501</v>
       </c>
       <c r="R20">
-        <v>0.6707475319999999</v>
+        <v>1.959323054585</v>
       </c>
       <c r="S20">
-        <v>0.001233636376678196</v>
+        <v>0.005714263663263025</v>
       </c>
       <c r="T20">
-        <v>0.0008154670066034401</v>
+        <v>0.003626184055399142</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.348712</v>
+        <v>0.2857985</v>
       </c>
       <c r="H21">
-        <v>0.697424</v>
+        <v>0.571597</v>
       </c>
       <c r="I21">
-        <v>0.1374872116388428</v>
+        <v>0.1775772630320576</v>
       </c>
       <c r="J21">
-        <v>0.09770797640350913</v>
+        <v>0.1277607223123114</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>14.596253</v>
       </c>
       <c r="O21">
-        <v>0.09078472687764562</v>
+        <v>0.09134965950092246</v>
       </c>
       <c r="P21">
-        <v>0.1266646895538805</v>
+        <v>0.1208586558920509</v>
       </c>
       <c r="Q21">
-        <v>1.696629525378667</v>
+        <v>1.390529071006833</v>
       </c>
       <c r="R21">
-        <v>10.179777152272</v>
+        <v>8.343174426041001</v>
       </c>
       <c r="S21">
-        <v>0.01248173895780141</v>
+        <v>0.01622162251308421</v>
       </c>
       <c r="T21">
-        <v>0.01237615049808836</v>
+        <v>0.01544098917446351</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.348712</v>
+        <v>0.2857985</v>
       </c>
       <c r="H22">
-        <v>0.697424</v>
+        <v>0.571597</v>
       </c>
       <c r="I22">
-        <v>0.1374872116388428</v>
+        <v>0.1775772630320576</v>
       </c>
       <c r="J22">
-        <v>0.09770797640350913</v>
+        <v>0.1277607223123114</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.708736</v>
+        <v>3.153815333333333</v>
       </c>
       <c r="N22">
-        <v>5.126208</v>
+        <v>9.461445999999999</v>
       </c>
       <c r="O22">
-        <v>0.03188362062496464</v>
+        <v>0.05921381812759512</v>
       </c>
       <c r="P22">
-        <v>0.04448467321775106</v>
+        <v>0.07834186255576833</v>
       </c>
       <c r="Q22">
-        <v>0.5958567480320001</v>
+        <v>0.9013556915436666</v>
       </c>
       <c r="R22">
-        <v>3.575140488192</v>
+        <v>5.408134149262</v>
       </c>
       <c r="S22">
-        <v>0.004383590096677088</v>
+        <v>0.01051502775677638</v>
       </c>
       <c r="T22">
-        <v>0.004346507401077835</v>
+        <v>0.01000901294741678</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.348712</v>
+        <v>0.2857985</v>
       </c>
       <c r="H23">
-        <v>0.697424</v>
+        <v>0.571597</v>
       </c>
       <c r="I23">
-        <v>0.1374872116388428</v>
+        <v>0.1775772630320576</v>
       </c>
       <c r="J23">
-        <v>0.09770797640350913</v>
+        <v>0.1277607223123114</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>45.062479</v>
+        <v>37.2992575</v>
       </c>
       <c r="N23">
-        <v>90.12495799999999</v>
+        <v>74.59851499999999</v>
       </c>
       <c r="O23">
-        <v>0.8408291186329754</v>
+        <v>0.7003046204246175</v>
       </c>
       <c r="P23">
-        <v>0.7820945434507416</v>
+        <v>0.6176842957191133</v>
       </c>
       <c r="Q23">
-        <v>15.713827177048</v>
+        <v>10.66007184461375</v>
       </c>
       <c r="R23">
-        <v>62.855308708192</v>
+        <v>42.640287378455</v>
       </c>
       <c r="S23">
-        <v>0.1156032509855936</v>
+        <v>0.1243581777837076</v>
       </c>
       <c r="T23">
-        <v>0.07641687519679831</v>
+        <v>0.07891579178204525</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.348712</v>
+        <v>0.2857985</v>
       </c>
       <c r="H24">
-        <v>0.697424</v>
+        <v>0.571597</v>
       </c>
       <c r="I24">
-        <v>0.1374872116388428</v>
+        <v>0.1775772630320576</v>
       </c>
       <c r="J24">
-        <v>0.09770797640350913</v>
+        <v>0.1277607223123114</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.5802156666666667</v>
+        <v>2.928649333333333</v>
       </c>
       <c r="N24">
-        <v>1.740647</v>
+        <v>8.785947999999999</v>
       </c>
       <c r="O24">
-        <v>0.01082635128929275</v>
+        <v>0.05498625970602254</v>
       </c>
       <c r="P24">
-        <v>0.01510514457908433</v>
+        <v>0.07274866131858995</v>
       </c>
       <c r="Q24">
-        <v>0.2023281655546667</v>
+        <v>0.8370035864926666</v>
       </c>
       <c r="R24">
-        <v>1.213968993328</v>
+        <v>5.022021518956</v>
       </c>
       <c r="S24">
-        <v>0.001488484850987452</v>
+        <v>0.009764309502965394</v>
       </c>
       <c r="T24">
-        <v>0.001475893110104766</v>
+        <v>0.009294421517316758</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.348712</v>
+        <v>0.2857985</v>
       </c>
       <c r="H25">
-        <v>0.697424</v>
+        <v>0.571597</v>
       </c>
       <c r="I25">
-        <v>0.1374872116388428</v>
+        <v>0.1775772630320576</v>
       </c>
       <c r="J25">
-        <v>0.09770797640350913</v>
+        <v>0.1277607223123114</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.8951863333333333</v>
+        <v>3.300433333333334</v>
       </c>
       <c r="N25">
-        <v>2.685559</v>
+        <v>9.901300000000001</v>
       </c>
       <c r="O25">
-        <v>0.01670344713323365</v>
+        <v>0.06196661455624835</v>
       </c>
       <c r="P25">
-        <v>0.02330498772620821</v>
+        <v>0.08198390433380152</v>
       </c>
       <c r="Q25">
-        <v>0.3121622166693334</v>
+        <v>0.9432588960166668</v>
       </c>
       <c r="R25">
-        <v>1.872973300016</v>
+        <v>5.659553376100001</v>
       </c>
       <c r="S25">
-        <v>0.002296510371105117</v>
+        <v>0.01100386181226104</v>
       </c>
       <c r="T25">
-        <v>0.002277083190836421</v>
+        <v>0.01047432283566992</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.218412</v>
+        <v>0.4579963333333333</v>
       </c>
       <c r="H26">
-        <v>0.655236</v>
+        <v>1.373989</v>
       </c>
       <c r="I26">
-        <v>0.08611363207593355</v>
+        <v>0.2845701966667118</v>
       </c>
       <c r="J26">
-        <v>0.09179750571636437</v>
+        <v>0.3071076774181291</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.4808749999999999</v>
+        <v>1.7139025</v>
       </c>
       <c r="N26">
-        <v>0.9617499999999999</v>
+        <v>3.427805</v>
       </c>
       <c r="O26">
-        <v>0.008972735441887963</v>
+        <v>0.03217902768459407</v>
       </c>
       <c r="P26">
-        <v>0.008345961472334341</v>
+        <v>0.02838262018067593</v>
       </c>
       <c r="Q26">
-        <v>0.1050288705</v>
+        <v>0.7849610606908333</v>
       </c>
       <c r="R26">
-        <v>0.630173223</v>
+        <v>4.709766364145</v>
       </c>
       <c r="S26">
-        <v>0.000772674838557429</v>
+        <v>0.009157192236748501</v>
       </c>
       <c r="T26">
-        <v>0.0007661384459651684</v>
+        <v>0.008716520562728303</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.218412</v>
+        <v>0.4579963333333333</v>
       </c>
       <c r="H27">
-        <v>0.655236</v>
+        <v>1.373989</v>
       </c>
       <c r="I27">
-        <v>0.08611363207593355</v>
+        <v>0.2845701966667118</v>
       </c>
       <c r="J27">
-        <v>0.09179750571636437</v>
+        <v>0.3071076774181291</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>14.596253</v>
       </c>
       <c r="O27">
-        <v>0.09078472687764562</v>
+        <v>0.09134965950092246</v>
       </c>
       <c r="P27">
-        <v>0.1266646895538805</v>
+        <v>0.1208586558920509</v>
       </c>
       <c r="Q27">
-        <v>1.062665603412</v>
+        <v>2.228343451468555</v>
       </c>
       <c r="R27">
-        <v>9.563990430708001</v>
+        <v>20.055091063217</v>
       </c>
       <c r="S27">
-        <v>0.007817802568455691</v>
+        <v>0.02599539056961466</v>
       </c>
       <c r="T27">
-        <v>0.01162750256338386</v>
+        <v>0.03711662110688464</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.218412</v>
+        <v>0.4579963333333333</v>
       </c>
       <c r="H28">
-        <v>0.655236</v>
+        <v>1.373989</v>
       </c>
       <c r="I28">
-        <v>0.08611363207593355</v>
+        <v>0.2845701966667118</v>
       </c>
       <c r="J28">
-        <v>0.09179750571636437</v>
+        <v>0.3071076774181291</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.708736</v>
+        <v>3.153815333333333</v>
       </c>
       <c r="N28">
-        <v>5.126208</v>
+        <v>9.461445999999999</v>
       </c>
       <c r="O28">
-        <v>0.03188362062496464</v>
+        <v>0.05921381812759512</v>
       </c>
       <c r="P28">
-        <v>0.04448467321775106</v>
+        <v>0.07834186255576833</v>
       </c>
       <c r="Q28">
-        <v>0.373208447232</v>
+        <v>1.444435858677111</v>
       </c>
       <c r="R28">
-        <v>3.358876025088</v>
+        <v>12.999922728094</v>
       </c>
       <c r="S28">
-        <v>0.002745614375746851</v>
+        <v>0.01685048786995665</v>
       </c>
       <c r="T28">
-        <v>0.004083582043997104</v>
+        <v>0.02405938745411231</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.218412</v>
+        <v>0.4579963333333333</v>
       </c>
       <c r="H29">
-        <v>0.655236</v>
+        <v>1.373989</v>
       </c>
       <c r="I29">
-        <v>0.08611363207593355</v>
+        <v>0.2845701966667118</v>
       </c>
       <c r="J29">
-        <v>0.09179750571636437</v>
+        <v>0.3071076774181291</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>45.062479</v>
+        <v>37.2992575</v>
       </c>
       <c r="N29">
-        <v>90.12495799999999</v>
+        <v>74.59851499999999</v>
       </c>
       <c r="O29">
-        <v>0.8408291186329754</v>
+        <v>0.7003046204246175</v>
       </c>
       <c r="P29">
-        <v>0.7820945434507416</v>
+        <v>0.6176842957191133</v>
       </c>
       <c r="Q29">
-        <v>9.842186163348</v>
+        <v>17.08292317105583</v>
       </c>
       <c r="R29">
-        <v>59.053116980088</v>
+        <v>102.497539026335</v>
       </c>
       <c r="S29">
-        <v>0.07240684936069153</v>
+        <v>0.1992858235608404</v>
       </c>
       <c r="T29">
-        <v>0.07179432832315684</v>
+        <v>0.1896955894359497</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.218412</v>
+        <v>0.4579963333333333</v>
       </c>
       <c r="H30">
-        <v>0.655236</v>
+        <v>1.373989</v>
       </c>
       <c r="I30">
-        <v>0.08611363207593355</v>
+        <v>0.2845701966667118</v>
       </c>
       <c r="J30">
-        <v>0.09179750571636437</v>
+        <v>0.3071076774181291</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.5802156666666667</v>
+        <v>2.928649333333333</v>
       </c>
       <c r="N30">
-        <v>1.740647</v>
+        <v>8.785947999999999</v>
       </c>
       <c r="O30">
-        <v>0.01082635128929275</v>
+        <v>0.05498625970602254</v>
       </c>
       <c r="P30">
-        <v>0.01510514457908433</v>
+        <v>0.07274866131858995</v>
       </c>
       <c r="Q30">
-        <v>0.126726064188</v>
+        <v>1.341310656285778</v>
       </c>
       <c r="R30">
-        <v>1.140534577692</v>
+        <v>12.071795906572</v>
       </c>
       <c r="S30">
-        <v>0.0009322964316509649</v>
+        <v>0.01564745073850973</v>
       </c>
       <c r="T30">
-        <v>0.001386614595845004</v>
+        <v>0.02234167241283025</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.218412</v>
+        <v>0.4579963333333333</v>
       </c>
       <c r="H31">
-        <v>0.655236</v>
+        <v>1.373989</v>
       </c>
       <c r="I31">
-        <v>0.08611363207593355</v>
+        <v>0.2845701966667118</v>
       </c>
       <c r="J31">
-        <v>0.09179750571636437</v>
+        <v>0.3071076774181291</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.8951863333333333</v>
+        <v>3.300433333333334</v>
       </c>
       <c r="N31">
-        <v>2.685559</v>
+        <v>9.901300000000001</v>
       </c>
       <c r="O31">
-        <v>0.01670344713323365</v>
+        <v>0.06196661455624835</v>
       </c>
       <c r="P31">
-        <v>0.02330498772620821</v>
+        <v>0.08198390433380152</v>
       </c>
       <c r="Q31">
-        <v>0.195519437436</v>
+        <v>1.511586365077778</v>
       </c>
       <c r="R31">
-        <v>1.759674936924</v>
+        <v>13.6042772857</v>
       </c>
       <c r="S31">
-        <v>0.001438394500831089</v>
+        <v>0.01763385169104192</v>
       </c>
       <c r="T31">
-        <v>0.002139339744016399</v>
+        <v>0.02517788644562387</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.7440523333333333</v>
+        <v>0.3398253333333334</v>
       </c>
       <c r="H32">
-        <v>2.232157</v>
+        <v>1.019476</v>
       </c>
       <c r="I32">
-        <v>0.293358647317485</v>
+        <v>0.2111461487806618</v>
       </c>
       <c r="J32">
-        <v>0.3127215918651031</v>
+        <v>0.2278685684845546</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.4808749999999999</v>
+        <v>1.7139025</v>
       </c>
       <c r="N32">
-        <v>0.9617499999999999</v>
+        <v>3.427805</v>
       </c>
       <c r="O32">
-        <v>0.008972735441887963</v>
+        <v>0.03217902768459407</v>
       </c>
       <c r="P32">
-        <v>0.008345961472334341</v>
+        <v>0.02838262018067593</v>
       </c>
       <c r="Q32">
-        <v>0.3577961657916666</v>
+        <v>0.5824274883633335</v>
       </c>
       <c r="R32">
-        <v>2.14677699475</v>
+        <v>3.494564930180001</v>
       </c>
       <c r="S32">
-        <v>0.002632229531969908</v>
+        <v>0.006794477767108337</v>
       </c>
       <c r="T32">
-        <v>0.002609962357273215</v>
+        <v>0.006467507030411453</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.7440523333333333</v>
+        <v>0.3398253333333334</v>
       </c>
       <c r="H33">
-        <v>2.232157</v>
+        <v>1.019476</v>
       </c>
       <c r="I33">
-        <v>0.293358647317485</v>
+        <v>0.2111461487806618</v>
       </c>
       <c r="J33">
-        <v>0.3127215918651031</v>
+        <v>0.2278685684845546</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>14.596253</v>
       </c>
       <c r="O33">
-        <v>0.09078472687764562</v>
+        <v>0.09134965950092246</v>
       </c>
       <c r="P33">
-        <v>0.1266646895538805</v>
+        <v>0.1208586558920509</v>
       </c>
       <c r="Q33">
-        <v>3.620125367524555</v>
+        <v>1.653392180380889</v>
       </c>
       <c r="R33">
-        <v>32.581128307721</v>
+        <v>14.880529623428</v>
       </c>
       <c r="S33">
-        <v>0.02663248467391344</v>
+        <v>0.01928812879604457</v>
       </c>
       <c r="T33">
-        <v>0.0396107833503886</v>
+        <v>0.02753988890708901</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.7440523333333333</v>
+        <v>0.3398253333333334</v>
       </c>
       <c r="H34">
-        <v>2.232157</v>
+        <v>1.019476</v>
       </c>
       <c r="I34">
-        <v>0.293358647317485</v>
+        <v>0.2111461487806618</v>
       </c>
       <c r="J34">
-        <v>0.3127215918651031</v>
+        <v>0.2278685684845546</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1.708736</v>
+        <v>3.153815333333333</v>
       </c>
       <c r="N34">
-        <v>5.126208</v>
+        <v>9.461445999999999</v>
       </c>
       <c r="O34">
-        <v>0.03188362062496464</v>
+        <v>0.05921381812759512</v>
       </c>
       <c r="P34">
-        <v>0.04448467321775106</v>
+        <v>0.07834186255576833</v>
       </c>
       <c r="Q34">
-        <v>1.271389007850667</v>
+        <v>1.071746346921778</v>
       </c>
       <c r="R34">
-        <v>11.442501070656</v>
+        <v>9.645717122295999</v>
       </c>
       <c r="S34">
-        <v>0.00935333581812349</v>
+        <v>0.01250276965224025</v>
       </c>
       <c r="T34">
-        <v>0.01391131782225403</v>
+        <v>0.01785164807299666</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.7440523333333333</v>
+        <v>0.3398253333333334</v>
       </c>
       <c r="H35">
-        <v>2.232157</v>
+        <v>1.019476</v>
       </c>
       <c r="I35">
-        <v>0.293358647317485</v>
+        <v>0.2111461487806618</v>
       </c>
       <c r="J35">
-        <v>0.3127215918651031</v>
+        <v>0.2278685684845546</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>45.062479</v>
+        <v>37.2992575</v>
       </c>
       <c r="N35">
-        <v>90.12495799999999</v>
+        <v>74.59851499999999</v>
       </c>
       <c r="O35">
-        <v>0.8408291186329754</v>
+        <v>0.7003046204246175</v>
       </c>
       <c r="P35">
-        <v>0.7820945434507416</v>
+        <v>0.6176842957191133</v>
       </c>
       <c r="Q35">
-        <v>33.52884264573433</v>
+        <v>12.67523261302333</v>
       </c>
       <c r="R35">
-        <v>201.173055874406</v>
+        <v>76.05139567814</v>
       </c>
       <c r="S35">
-        <v>0.2466644928673228</v>
+        <v>0.1478666235759612</v>
       </c>
       <c r="T35">
-        <v>0.244577850616927</v>
+        <v>0.1407508362409046</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.7440523333333333</v>
+        <v>0.3398253333333334</v>
       </c>
       <c r="H36">
-        <v>2.232157</v>
+        <v>1.019476</v>
       </c>
       <c r="I36">
-        <v>0.293358647317485</v>
+        <v>0.2111461487806618</v>
       </c>
       <c r="J36">
-        <v>0.3127215918651031</v>
+        <v>0.2278685684845546</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.5802156666666667</v>
+        <v>2.928649333333333</v>
       </c>
       <c r="N36">
-        <v>1.740647</v>
+        <v>8.785947999999999</v>
       </c>
       <c r="O36">
-        <v>0.01082635128929275</v>
+        <v>0.05498625970602254</v>
       </c>
       <c r="P36">
-        <v>0.01510514457908433</v>
+        <v>0.07274866131858995</v>
       </c>
       <c r="Q36">
-        <v>0.4317108206198889</v>
+        <v>0.9952292359164444</v>
       </c>
       <c r="R36">
-        <v>3.885397385579</v>
+        <v>8.957063123248</v>
       </c>
       <c r="S36">
-        <v>0.003176003769610831</v>
+        <v>0.01161013697277995</v>
       </c>
       <c r="T36">
-        <v>0.004723704858123785</v>
+        <v>0.01657713331383478</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.7440523333333333</v>
+        <v>0.3398253333333334</v>
       </c>
       <c r="H37">
-        <v>2.232157</v>
+        <v>1.019476</v>
       </c>
       <c r="I37">
-        <v>0.293358647317485</v>
+        <v>0.2111461487806618</v>
       </c>
       <c r="J37">
-        <v>0.3127215918651031</v>
+        <v>0.2278685684845546</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.8951863333333333</v>
+        <v>3.300433333333334</v>
       </c>
       <c r="N37">
-        <v>2.685559</v>
+        <v>9.901300000000001</v>
       </c>
       <c r="O37">
-        <v>0.01670344713323365</v>
+        <v>0.06196661455624835</v>
       </c>
       <c r="P37">
-        <v>0.02330498772620821</v>
+        <v>0.08198390433380152</v>
       </c>
       <c r="Q37">
-        <v>0.6660654800847777</v>
+        <v>1.121570857644445</v>
       </c>
       <c r="R37">
-        <v>5.994589320763</v>
+        <v>10.0941377188</v>
       </c>
       <c r="S37">
-        <v>0.004900100656544545</v>
+        <v>0.01308401201652754</v>
       </c>
       <c r="T37">
-        <v>0.00728797286013652</v>
+        <v>0.01868155491931802</v>
       </c>
     </row>
   </sheetData>
